--- a/result_table_templates/SMSVC.xlsx
+++ b/result_table_templates/SMSVC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Field</t>
   </si>
@@ -27,84 +27,75 @@
     <t>source_id</t>
   </si>
   <si>
+    <t>spot_sizes</t>
+  </si>
+  <si>
+    <t>sample_rate</t>
+  </si>
+  <si>
+    <t>pre_time_ms</t>
+  </si>
+  <si>
+    <t>stim_time_ms</t>
+  </si>
+  <si>
+    <t>tail_time_ms</t>
+  </si>
+  <si>
+    <t>n_epochs_per_size</t>
+  </si>
+  <si>
+    <t>peak_stim_mean</t>
+  </si>
+  <si>
+    <t>peak_tail_mean</t>
+  </si>
+  <si>
+    <t>peak_stim_sem</t>
+  </si>
+  <si>
+    <t>peak_tail_sem</t>
+  </si>
+  <si>
     <t>charge_stim_mean</t>
   </si>
   <si>
+    <t>charge_tail_mean</t>
+  </si>
+  <si>
     <t>charge_stim_sem</t>
   </si>
   <si>
-    <t>charge_tail_mean</t>
-  </si>
-  <si>
     <t>charge_tail_sem</t>
   </si>
   <si>
-    <t>entry_time</t>
+    <t>mean_traces</t>
   </si>
   <si>
     <t>holding_current_mean</t>
   </si>
   <si>
-    <t>mean_traces</t>
-  </si>
-  <si>
-    <t>n_epochs_per_size</t>
-  </si>
-  <si>
-    <t>peak_stim_mean</t>
-  </si>
-  <si>
-    <t>peak_stim_sem</t>
-  </si>
-  <si>
-    <t>peak_tail_mean</t>
-  </si>
-  <si>
-    <t>peak_tail_sem</t>
-  </si>
-  <si>
-    <t>pre_time_ms</t>
-  </si>
-  <si>
-    <t>sample_rate</t>
-  </si>
-  <si>
-    <t>spot_sizes</t>
-  </si>
-  <si>
-    <t>stim_time_ms</t>
-  </si>
-  <si>
-    <t>tail_time_ms</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
     <t>cell</t>
   </si>
   <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
     <t>double</t>
   </si>
   <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -117,55 +108,52 @@
     <t>source id used to identify the cell to which the dataset belongs</t>
   </si>
   <si>
+    <t>set of spot sizes (microns)</t>
+  </si>
+  <si>
+    <t>sample rate (Hz)</t>
+  </si>
+  <si>
+    <t>time before stimulus onset (ms)</t>
+  </si>
+  <si>
+    <t>stimulus presentation time (ms)</t>
+  </si>
+  <si>
+    <t>time after stimulus offset (ms)</t>
+  </si>
+  <si>
+    <t>vector with how many trials for each spot size</t>
+  </si>
+  <si>
+    <t>peak current in stim time, mean</t>
+  </si>
+  <si>
+    <t>peak current in tail time, mean</t>
+  </si>
+  <si>
+    <t>peak current in stim time, standard error of the mean</t>
+  </si>
+  <si>
+    <t>peak current in tail time, standard error of the mean</t>
+  </si>
+  <si>
     <t>charge duriung stim time, mean</t>
   </si>
   <si>
+    <t>charge duriung tail time, mean</t>
+  </si>
+  <si>
     <t>charge duriung stim time, standard error of the mean</t>
   </si>
   <si>
-    <t>charge duriung tail time, mean</t>
-  </si>
-  <si>
     <t>charge duriung tail time, standard error of the mean</t>
   </si>
   <si>
-    <t>time the result was entered</t>
+    <t>mean trace for each spot size</t>
   </si>
   <si>
     <t>mean holding current across all spot sizes</t>
-  </si>
-  <si>
-    <t>mean trace for each spot size</t>
-  </si>
-  <si>
-    <t>vector with how many trials for each spot size</t>
-  </si>
-  <si>
-    <t>peak current in stim time, mean</t>
-  </si>
-  <si>
-    <t>peak current in stim time, standard error of the mean</t>
-  </si>
-  <si>
-    <t>peak current in tail time, mean</t>
-  </si>
-  <si>
-    <t>peak current in tail time, standard error of the mean</t>
-  </si>
-  <si>
-    <t>time before stimulus onset (ms)</t>
-  </si>
-  <si>
-    <t>sample rate (Hz)</t>
-  </si>
-  <si>
-    <t>set of spot sizes (microns)</t>
-  </si>
-  <si>
-    <t>stimulus presentation time (ms)</t>
-  </si>
-  <si>
-    <t>time after stimulus offset (ms)</t>
   </si>
 </sst>
 </file>
@@ -211,11 +199,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="true"/>
-    <col min="2" max="2" width="7.42578125" customWidth="true"/>
+    <col min="1" max="1" width="18" customWidth="true"/>
+    <col min="2" max="2" width="6.7109375" customWidth="true"/>
     <col min="3" max="3" width="56.42578125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -224,10 +212,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -235,10 +223,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -246,10 +234,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -257,10 +245,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -268,10 +256,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -282,7 +270,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -293,7 +281,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -304,7 +292,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -315,7 +303,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -326,7 +314,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -334,10 +322,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -345,10 +333,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -356,10 +344,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -367,10 +355,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -378,10 +366,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -389,10 +377,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -400,10 +388,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -411,10 +399,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -422,10 +410,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -433,21 +421,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/result_table_templates/SMSVC.xlsx
+++ b/result_table_templates/SMSVC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C258E2B1-E459-CF45-A629-4DFDD8F3AC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A072B943-0302-B94A-8136-548F94EA3137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="13020" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
